--- a/regression-tests/src/test/java/com/hansencx/portal/testscripts/CancelBillingTests_.xlsx
+++ b/regression-tests/src/test/java/com/hansencx/portal/testscripts/CancelBillingTests_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="25080" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -483,11 +483,11 @@
         <v>15</v>
       </c>
       <c r="D3" t="str">
-        <f>J2</f>
+        <f>I2</f>
         <v>out</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
